--- a/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet (1).xlsx
+++ b/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,33 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>NoNO</t>
+    <t>Python</t>
   </si>
   <si>
-    <t>NoPo</t>
-  </si>
-  <si>
-    <t>CP01</t>
-  </si>
-  <si>
-    <t>Nguyen Van DAO</t>
-  </si>
-  <si>
-    <t>Nguyen Van BUI</t>
-  </si>
-  <si>
-    <t>St0020</t>
-  </si>
-  <si>
-    <t>St0021</t>
-  </si>
-  <si>
-    <t>nguyenDAO@student.com</t>
-  </si>
-  <si>
-    <t>nguyenvanBUI@student.com</t>
+    <t>Ruby</t>
   </si>
 </sst>
 </file>
@@ -374,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,57 +367,43 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>123456</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1">
-        <v>378288209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>654321</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>378288209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F1" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>